--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\eclipse_WS\Test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4B67670A-B56B-4E4E-B7AB-E30EF14AC04E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{771522B5-C53F-41FF-950D-7306999A782B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>Testcase</t>
   </si>
@@ -46,25 +46,31 @@
     <t>Error</t>
   </si>
   <si>
-    <t xml:space="preserve">login </t>
-  </si>
-  <si>
-    <t>trungdv</t>
-  </si>
-  <si>
-    <t>trungdv123</t>
-  </si>
-  <si>
-    <t>password that you've entered is incorrect. Forgotten password?</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>The password that you've entered is incorrect. Forgotten password?</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t xml:space="preserve">login_2_3 </t>
+  </si>
+  <si>
+    <t>login_2_3</t>
+  </si>
+  <si>
+    <t>phuonglethi1901@gmail.com</t>
+  </si>
+  <si>
+    <t>E-Mail hoặc mật khẩu bị sai. Vui lòng nhập lại</t>
+  </si>
+  <si>
+    <t>Lethiphuong1901</t>
+  </si>
+  <si>
+    <t>login_4_5_6_7_8</t>
+  </si>
+  <si>
+    <t>phuonglethi@gmail.com</t>
+  </si>
+  <si>
+    <t>Lethiphuong</t>
   </si>
   <si>
     <t>Pass</t>
@@ -75,13 +81,69 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -140,12 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="2"/>
+        <bgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="gray125">
-        <bgColor indexed="2"/>
+        <bgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -258,11 +320,30 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -270,15 +351,25 @@
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,17 +648,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="62.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="10.140625" collapsed="true"/>
@@ -575,7 +666,7 @@
   <sheetData>
     <row ht="15.75" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -601,22 +692,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row ht="15.75" r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
@@ -624,20 +713,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row ht="15.75" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
@@ -645,23 +736,116 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C3" xr:uid="{00F0E1F4-34D2-49CD-B44C-E7E53BD10673}"/>
+    <hyperlink r:id="rId2" ref="C5" xr:uid="{375DAAD9-7981-4CDB-90DB-6F28D9D09D81}"/>
+    <hyperlink r:id="rId3" ref="C6" xr:uid="{9FE741AF-2A81-4EE8-A206-A7A1B65B3284}"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\eclipse_WS\Test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{771522B5-C53F-41FF-950D-7306999A782B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EC0B9A-5BF5-4599-B1C8-1BAB73CA5F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Testcase</t>
   </si>
@@ -74,14 +74,19 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Testcase lỗi</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,92 +102,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,27 +122,17 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="gray125">
         <bgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="gray125">
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <bgColor indexed="17"/>
+        <bgColor indexed="2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,77 +214,45 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="9" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +269,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -428,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -557,21 +436,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -588,7 +467,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -640,31 +519,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="62.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -687,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -701,14 +579,8 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row ht="15.75" r="3" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -724,14 +596,8 @@
       <c r="E3" s="1"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row ht="15.75" r="4" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -743,16 +609,14 @@
         <v>11</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -766,18 +630,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row ht="15.75" r="6" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -793,16 +655,14 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -812,16 +672,14 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -831,33 +689,31 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="21" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="G8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3" xr:uid="{00F0E1F4-34D2-49CD-B44C-E7E53BD10673}"/>
-    <hyperlink r:id="rId2" ref="C5" xr:uid="{375DAAD9-7981-4CDB-90DB-6F28D9D09D81}"/>
-    <hyperlink r:id="rId3" ref="C6" xr:uid="{9FE741AF-2A81-4EE8-A206-A7A1B65B3284}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00F0E1F4-34D2-49CD-B44C-E7E53BD10673}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{375DAAD9-7981-4CDB-90DB-6F28D9D09D81}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{9FE741AF-2A81-4EE8-A206-A7A1B65B3284}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78D27F5-8D11-4E77-BAD7-ABAC64DCDE23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78D27F5-8D11-4E77-BAD7-ABAC64DCDE23}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>